--- a/吉隆坡机场APM300R项目CIB执行管理台账_TS_20240623Jun%M.xlsx
+++ b/吉隆坡机场APM300R项目CIB执行管理台账_TS_20240623Jun%M.xlsx
@@ -10,6 +10,7 @@
     <sheet name="TS1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="TS2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TS3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="无整改车号" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10081,4 +10082,743 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>序号
+No.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>变更通知编号
+ECN</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>变更通知编号
+MCN</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>名称
+Title</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>车间
+MF</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>外协
+OT</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>制造分部
+MF</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>变更关闭状态</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>变更范围
+Scope of change</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>基线范围
+Scope of influence</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>变更台位
+Station</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>备注
+Comments</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>MCN发布时间
+MCN release date</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">车间整改范围
+Scope of workshop </t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>供应商整改范围
+Scope of Supplier</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>无整改车号
+生产</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>无整改车号
+外协</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>无整改车号
+制造分部</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>无整改车号
+汇总</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>列汇总</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>CN-PROC-1C-0152</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-0149</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>关于乘客停止开关与LED面板图纸升版的事宜</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>R2008、R2005</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2024-03-04 05:03:18</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>张鹏-已完成、</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>陈勇-已完成、</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>聂旭鹏-已完成、陈永浩-未完成、</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>7/8-未完成</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>223</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FTN-1C-2024-006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-8076Z</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>关于接线清单升至C10版的变更事宜</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>待执行</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>待执行</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>1C0201-1C0303</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>X1002、R3001、R2006、R2007、R2005</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2024-03-06 03:03:37</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>1C0101-1C0103</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>1C0101-1C0103</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>聂旭鹏-已完成、</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>1/2-未完成</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>266</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CN-PROC-1C-0027</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-0175</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>关于牵引箱零件图升级事宜</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>供应商、R2005</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2024-06-04 09:06:23</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>徐奇-已完成、李杰-未完成、</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>聂旭鹏-已完成、葛二冬-已完成、</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>7/8-未完成</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>267</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CR-ENG-1C-0188</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-0176</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>关于受流器线束安装增加防护要求的相关变更</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>待执行</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1C0101-1C0303</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>1C0301-1C0303</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>R3001、R2006、R2005</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2024-06-06 02:06:28</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1C0101-1C0203</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>聂旭鹏-已完成、葛二冬-已完成、</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>2/3-未完成</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>269</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SWATR-1C-235</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-8087Z</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>关于TCMS软件试装升级的事宜</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1C0101-1C0103</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>R3001</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2024-06-07 09:06:07</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>1C0101-1C0103</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>刘焱东-未完成、</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>272</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CR-ENG-1C-0191</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CN-MET-1C-0179</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>关于信号天线打胶注意事项</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>待分配</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1C0101-1C0301(A1车)、1C0103-1C0303(A2车)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>R2005</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2024-06-17 05:06:59</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>1C0101-1C0301(A1车)、1C0103-1C0303(A2车)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>/</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>陈勇-未完成、</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>聂旭鹏-已完成、</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>1/2-未完成</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>0/1-未完成</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>